--- a/biology/Botanique/Gilbertiodendron_splendidum/Gilbertiodendron_splendidum.xlsx
+++ b/biology/Botanique/Gilbertiodendron_splendidum/Gilbertiodendron_splendidum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gilbertiodendron splendidum est un arbre de la famille des Fabacées sous-famille des Caesalpinioidées poussant dans les forêts marécageuses de l'ouest africain. On le trouve dans les forêts côtières depuis la Sierra Leone jusqu'au Ghana. Il est menacé par la perte de son habitat.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Berlinia splendida</t>
         </is>
